--- a/AMT HALL EFFECT/05_Documents/FMEA/IFRL_AMT.xlsx
+++ b/AMT HALL EFFECT/05_Documents/FMEA/IFRL_AMT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\AMT_20 pin microcontroller\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Volume\Embdes_Final\LUMAX\AMT_Hall_Effect\AMT_20 pin microcontroller\Documents\FMEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -991,7 +991,7 @@
     <definedName name="PartName_3">#REF!</definedName>
     <definedName name="PartName_4" localSheetId="0">#REF!</definedName>
     <definedName name="PartName_4">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IFRL Sheet'!$B$7:$N$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IFRL Sheet'!$B$7:$N$18</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="Print_Area_MI" localSheetId="0">#REF!</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
@@ -1285,7 +1285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>ITEM FUNCTION REQUIREMENT LIST (IFRL)</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>Govt. Regulation</t>
   </si>
   <si>
-    <t>Loading &amp; Duty Cycle</t>
-  </si>
-  <si>
     <t>Fluid Retention</t>
   </si>
   <si>
@@ -1486,30 +1483,9 @@
     <t>Operating voltage: 8 - 16V</t>
   </si>
   <si>
-    <t>For powering up board and remaining circuitry.</t>
-  </si>
-  <si>
-    <t>GSL board will not operate.</t>
-  </si>
-  <si>
-    <t>GSL will operate properly due to proper power supply.</t>
-  </si>
-  <si>
-    <t>Buck conversion</t>
-  </si>
-  <si>
-    <t>Required voltage: 5V</t>
-  </si>
-  <si>
-    <t>For powering up the MCU and HES components.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detection of lever position won't happen and desired output will not be obatined.  </t>
   </si>
   <si>
-    <t>GSL can detect lever position properly and can obtained output.</t>
-  </si>
-  <si>
     <t>To detect the lever position (HES).</t>
   </si>
   <si>
@@ -1519,15 +1495,6 @@
     <t>MCU should detect active low input signal whenever the gear is moved from one position to another.</t>
   </si>
   <si>
-    <t>After GSL PCB fitted in Mechanical enclosure.</t>
-  </si>
-  <si>
-    <t>GSL cannot detect the gear positions.</t>
-  </si>
-  <si>
-    <t>MCU detect the inputs from HES and generates the required output.</t>
-  </si>
-  <si>
     <t>Logic circuitry</t>
   </si>
   <si>
@@ -1537,19 +1504,46 @@
     <t>To obtain the required output voltage range as per the EE requirement.</t>
   </si>
   <si>
-    <t>After connecting with TCU.</t>
-  </si>
-  <si>
     <t>Output voltage cannot be obtained as per EE spec after connecting to TCU.</t>
   </si>
   <si>
-    <t>Desired voltage will be obtained as per EE spec.</t>
-  </si>
-  <si>
     <t>NEXON</t>
   </si>
   <si>
     <t xml:space="preserve">FUNCTIONALITY </t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>MCU and HES won't operate if the required voltage goes below 3V. Due to this, GSL doesn't operate and desired output signal cannot be obtained.</t>
+  </si>
+  <si>
+    <t>MCU gets damaged above 5.5V. Due to this, desired output signal cannot be obtained.</t>
+  </si>
+  <si>
+    <t>Required voltage: 5V (DC)</t>
+  </si>
+  <si>
+    <t>After Buck conversion and magnet placement above sensor.</t>
+  </si>
+  <si>
+    <t>GSL cannot detect the gear positions and achieve the desired output cannot be obtained  as per RFQ.</t>
+  </si>
+  <si>
+    <t>HES cannot detect the lever position if the magnet is placed above 2mm from the body of HES.</t>
+  </si>
+  <si>
+    <t>Magnet looses its properties over the time and it leads to inoperation of GSL.</t>
+  </si>
+  <si>
+    <t>MCU should give desired logic and the output should be connected to TCU.</t>
+  </si>
+  <si>
+    <t>When the TCU pull up resistor value changes, the output voltage levels  cannot be obtained</t>
+  </si>
+  <si>
+    <t>Due to this, GSL operate at low voltage(3V) and desired output signal cannot be obtained.</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2160,83 +2154,86 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2267,7 +2264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>6497</xdr:colOff>
+      <xdr:colOff>6498</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>378473</xdr:rowOff>
     </xdr:to>
@@ -2313,7 +2310,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>3308</xdr:colOff>
+      <xdr:colOff>3309</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>379833</xdr:rowOff>
     </xdr:to>
@@ -3298,10 +3295,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:IW27"/>
+  <dimension ref="A2:IW26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3313,7 +3310,9 @@
     <col min="5" max="5" width="35.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="3"/>
     <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="19.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="27" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" customWidth="1"/>
     <col min="12" max="12" width="25.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="24" style="2" customWidth="1"/>
     <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
@@ -3328,142 +3327,142 @@
   <sheetData>
     <row r="2" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:39" s="8" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:39" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="56" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="67">
-        <v>43734</v>
-      </c>
-      <c r="N4" s="43"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52">
+        <v>43747</v>
+      </c>
+      <c r="N4" s="53"/>
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:39" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="56" t="s">
+      <c r="B5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="56" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="42">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="50"/>
+      <c r="M5" s="64">
         <v>0</v>
       </c>
-      <c r="N5" s="43"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:39" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="62" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="65"/>
+      <c r="N6" s="45"/>
       <c r="O6" s="14"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
     </row>
     <row r="8" spans="2:39" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="17" t="s">
         <v>7</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="28"/>
@@ -3708,29 +3707,29 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="27" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>20</v>
+      <c r="J15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="L15" s="27" t="s">
         <v>20</v>
@@ -3741,164 +3740,122 @@
       <c r="N15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AL15" s="6" t="s">
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16" spans="2:39" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="31">
+        <v>2</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="28"/>
+      <c r="AL16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AM15" s="7" t="s">
-        <v>44</v>
+      <c r="AM16" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:39" s="1" customFormat="1" ht="122.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="C16" s="27" t="s">
+    <row r="17" spans="2:39" s="1" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18" spans="2:39" s="1" customFormat="1" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="7"/>
-    </row>
-    <row r="17" spans="2:39" s="1" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
-        <v>2</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="28"/>
-      <c r="AL17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:39" s="1" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30">
-        <v>2.1</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="27" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H18" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>20</v>
+      <c r="M18" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="AL18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="2:39" s="1" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM19" s="5"/>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="G20" s="3"/>
@@ -3921,20 +3878,8 @@
     <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="G27" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G7:H7"/>
@@ -3951,11 +3896,20 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F9:F12"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
-      <formula1>$AM$11:$AM$19</formula1>
+      <formula1>$AM$11:$AM$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AMT HALL EFFECT/05_Documents/FMEA/IFRL_AMT.xlsx
+++ b/AMT HALL EFFECT/05_Documents/FMEA/IFRL_AMT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="IFRL Sheet" sheetId="4" r:id="rId1"/>
@@ -1285,7 +1285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>ITEM FUNCTION REQUIREMENT LIST (IFRL)</t>
   </si>
@@ -1525,9 +1525,6 @@
     <t>Required voltage: 5V (DC)</t>
   </si>
   <si>
-    <t>After Buck conversion and magnet placement above sensor.</t>
-  </si>
-  <si>
     <t>GSL cannot detect the gear positions and achieve the desired output cannot be obtained  as per RFQ.</t>
   </si>
   <si>
@@ -1537,13 +1534,19 @@
     <t>Magnet looses its properties over the time and it leads to inoperation of GSL.</t>
   </si>
   <si>
-    <t>MCU should give desired logic and the output should be connected to TCU.</t>
-  </si>
-  <si>
     <t>When the TCU pull up resistor value changes, the output voltage levels  cannot be obtained</t>
   </si>
   <si>
     <t>Due to this, GSL operate at low voltage(3V) and desired output signal cannot be obtained.</t>
+  </si>
+  <si>
+    <t>After Buck conversion and magnet placement above sensor at 1.5mm.</t>
+  </si>
+  <si>
+    <t>Chances of both HES getting low is possible which may gives as error state when the magnet is placed below 1mm.</t>
+  </si>
+  <si>
+    <t>MCU should give desired logic and the output should be connected to TCU with pull up value of 600ohms.</t>
   </si>
 </sst>
 </file>
@@ -2154,6 +2157,72 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2166,74 +2235,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3297,8 +3300,8 @@
   </sheetPr>
   <dimension ref="A2:IW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3311,7 +3314,7 @@
     <col min="6" max="6" width="30.28515625" style="3"/>
     <col min="7" max="7" width="28.5703125" style="2" customWidth="1"/>
     <col min="8" max="9" width="27" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="26" style="2" customWidth="1"/>
     <col min="12" max="12" width="25.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="24" style="2" customWidth="1"/>
@@ -3327,142 +3330,142 @@
   <sheetData>
     <row r="2" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:39" s="8" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:39" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="50" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52">
+      <c r="L4" s="58"/>
+      <c r="M4" s="43">
         <v>43747</v>
       </c>
-      <c r="N4" s="53"/>
+      <c r="N4" s="44"/>
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="2:39" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="50" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="64">
+      <c r="L5" s="58"/>
+      <c r="M5" s="57">
         <v>0</v>
       </c>
-      <c r="N5" s="53"/>
+      <c r="N5" s="44"/>
       <c r="O5" s="14"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="2:39" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="42" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="44" t="s">
+      <c r="L6" s="64"/>
+      <c r="M6" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="67"/>
       <c r="O6" s="14"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="2:39" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="17" t="s">
         <v>7</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:39" s="1" customFormat="1" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:39" s="1" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12">
         <v>3</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="G15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="42" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="27" t="s">
@@ -3786,22 +3789,22 @@
         <v>65</v>
       </c>
       <c r="H17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="J17" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>20</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="27" t="s">
         <v>20</v>
@@ -3829,13 +3832,13 @@
         <v>68</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>69</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" s="27" t="s">
         <v>74</v>
@@ -3844,10 +3847,10 @@
         <v>20</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AL18" s="5" t="s">
         <v>46</v>
@@ -3880,6 +3883,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G7:H7"/>
@@ -3896,15 +3908,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F9:F12"/>
